--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2102,28 +2102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>235.6612387339642</v>
+        <v>277.404516406862</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.4421034757542</v>
+        <v>379.5570975714031</v>
       </c>
       <c r="AC2" t="n">
-        <v>291.6686816704584</v>
+        <v>343.3327008909199</v>
       </c>
       <c r="AD2" t="n">
-        <v>235661.2387339642</v>
+        <v>277404.516406862</v>
       </c>
       <c r="AE2" t="n">
-        <v>322442.1034757542</v>
+        <v>379557.0975714031</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.378453023031138e-06</v>
+        <v>4.020892845237595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.518518518518517</v>
       </c>
       <c r="AH2" t="n">
-        <v>291668.6816704584</v>
+        <v>343332.7008909198</v>
       </c>
     </row>
     <row r="3">
@@ -2208,28 +2208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.5171391829014</v>
+        <v>184.6753404506229</v>
       </c>
       <c r="AB3" t="n">
-        <v>210.0489225281393</v>
+        <v>252.6809481054398</v>
       </c>
       <c r="AC3" t="n">
-        <v>190.002148167628</v>
+        <v>228.5654330582682</v>
       </c>
       <c r="AD3" t="n">
-        <v>153517.1391829014</v>
+        <v>184675.3404506229</v>
       </c>
       <c r="AE3" t="n">
-        <v>210048.9225281393</v>
+        <v>252680.9481054398</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.259764191099622e-06</v>
+        <v>5.5107931021695e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.215277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>190002.148167628</v>
+        <v>228565.4330582682</v>
       </c>
     </row>
     <row r="4">
@@ -2314,28 +2314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.2805435886219</v>
+        <v>158.5239962023639</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.150854959157</v>
+        <v>216.8995251891068</v>
       </c>
       <c r="AC4" t="n">
-        <v>157.5301417841637</v>
+        <v>196.1989389255161</v>
       </c>
       <c r="AD4" t="n">
-        <v>127280.5435886219</v>
+        <v>158523.996202364</v>
       </c>
       <c r="AE4" t="n">
-        <v>174150.854959157</v>
+        <v>216899.5251891068</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.592153106105011e-06</v>
+        <v>6.072713054861355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.640432098765432</v>
       </c>
       <c r="AH4" t="n">
-        <v>157530.1417841637</v>
+        <v>196198.9389255161</v>
       </c>
     </row>
     <row r="5">
@@ -2420,28 +2420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.6280110504506</v>
+        <v>152.7008714636005</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.4168105682992</v>
+        <v>208.932069023402</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.5342237351674</v>
+        <v>188.9918855938688</v>
       </c>
       <c r="AD5" t="n">
-        <v>121628.0110504506</v>
+        <v>152700.8714636005</v>
       </c>
       <c r="AE5" t="n">
-        <v>166416.8105682991</v>
+        <v>208932.069023402</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.705382763357598e-06</v>
+        <v>6.264133408472294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.466820987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>150534.2237351674</v>
+        <v>188991.8855938688</v>
       </c>
     </row>
     <row r="6">
@@ -2526,28 +2526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>121.9665340268555</v>
+        <v>153.0393944400054</v>
       </c>
       <c r="AB6" t="n">
-        <v>166.8799926391958</v>
+        <v>209.3952510942987</v>
       </c>
       <c r="AC6" t="n">
-        <v>150.9532003592979</v>
+        <v>189.4108622179993</v>
       </c>
       <c r="AD6" t="n">
-        <v>121966.5340268555</v>
+        <v>153039.3944400054</v>
       </c>
       <c r="AE6" t="n">
-        <v>166879.9926391958</v>
+        <v>209395.2510942987</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.704332395479559e-06</v>
+        <v>6.262357709459206e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.47067901234568</v>
       </c>
       <c r="AH6" t="n">
-        <v>150953.2003592979</v>
+        <v>189410.8622179993</v>
       </c>
     </row>
   </sheetData>
@@ -2823,28 +2823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>183.7291565414083</v>
+        <v>223.9208357162561</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.3863375381649</v>
+        <v>306.3783661169079</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.3943783065363</v>
+        <v>277.1380448595384</v>
       </c>
       <c r="AD2" t="n">
-        <v>183729.1565414083</v>
+        <v>223920.8357162561</v>
       </c>
       <c r="AE2" t="n">
-        <v>251386.3375381649</v>
+        <v>306378.3661169079</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.809815341898054e-06</v>
+        <v>4.866012941787087e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.461419753086421</v>
       </c>
       <c r="AH2" t="n">
-        <v>227394.3783065363</v>
+        <v>277138.0448595384</v>
       </c>
     </row>
     <row r="3">
@@ -2929,28 +2929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.1699095843491</v>
+        <v>152.441613115929</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.1582600492547</v>
+        <v>208.5773403144471</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.2049103182916</v>
+        <v>188.6710116950315</v>
       </c>
       <c r="AD3" t="n">
-        <v>122169.9095843491</v>
+        <v>152441.613115929</v>
       </c>
       <c r="AE3" t="n">
-        <v>167158.2600492547</v>
+        <v>208577.3403144471</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.645784031054351e-06</v>
+        <v>6.313736000205391e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.748456790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>151204.9103182916</v>
+        <v>188671.0116950315</v>
       </c>
     </row>
     <row r="4">
@@ -3035,28 +3035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.4815783166201</v>
+        <v>144.5826896476079</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.6387460235162</v>
+        <v>197.8244145138617</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.6893639469356</v>
+        <v>178.9443300410244</v>
       </c>
       <c r="AD4" t="n">
-        <v>114481.5783166201</v>
+        <v>144582.6896476079</v>
       </c>
       <c r="AE4" t="n">
-        <v>156638.7460235162</v>
+        <v>197824.4145138617</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.828113979764855e-06</v>
+        <v>6.629493365777098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.474537037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>141689.3639469356</v>
+        <v>178944.3300410244</v>
       </c>
     </row>
   </sheetData>
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.96431207259337</v>
+        <v>125.3104089107391</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.0390936580918</v>
+        <v>171.4552297766714</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.2465906844488</v>
+        <v>155.0917832857599</v>
       </c>
       <c r="AD2" t="n">
-        <v>97964.31207259337</v>
+        <v>125310.4089107391</v>
       </c>
       <c r="AE2" t="n">
-        <v>134039.0936580918</v>
+        <v>171455.2297766714</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.041671244238115e-06</v>
+        <v>7.647711720200058e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.787037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>121246.5906844488</v>
+        <v>155091.7832857599</v>
       </c>
     </row>
     <row r="3">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.38927502207569</v>
+        <v>125.7353718602214</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.6205467136155</v>
+        <v>172.036682832195</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.7725506764279</v>
+        <v>155.617743277739</v>
       </c>
       <c r="AD3" t="n">
-        <v>98389.2750220757</v>
+        <v>125735.3718602214</v>
       </c>
       <c r="AE3" t="n">
-        <v>134620.5467136154</v>
+        <v>172036.682832195</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.041974363519047e-06</v>
+        <v>7.648285287107733e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.787037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>121772.5506764279</v>
+        <v>155617.743277739</v>
       </c>
     </row>
   </sheetData>
@@ -3735,28 +3735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.1152768104778</v>
+        <v>152.5199178013742</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.8199973115876</v>
+        <v>208.684480239632</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.61261511208</v>
+        <v>188.7679263361286</v>
       </c>
       <c r="AD2" t="n">
-        <v>124115.2768104778</v>
+        <v>152519.9178013742</v>
       </c>
       <c r="AE2" t="n">
-        <v>169819.9973115876</v>
+        <v>208684.480239632</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.665057329260569e-06</v>
+        <v>6.676938495893316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.103395061728396</v>
       </c>
       <c r="AH2" t="n">
-        <v>153612.61511208</v>
+        <v>188767.9263361286</v>
       </c>
     </row>
     <row r="3">
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.7827122547258</v>
+        <v>132.2726045916428</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.0000854769812</v>
+        <v>180.9812130576749</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.4477966174681</v>
+        <v>163.708620092229</v>
       </c>
       <c r="AD3" t="n">
-        <v>103782.7122547258</v>
+        <v>132272.6045916428</v>
       </c>
       <c r="AE3" t="n">
-        <v>142000.0854769812</v>
+        <v>180981.2130576749</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.00491927738012e-06</v>
+        <v>7.296093155923301e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.58641975308642</v>
       </c>
       <c r="AH3" t="n">
-        <v>128447.7966174681</v>
+        <v>163708.620092229</v>
       </c>
     </row>
   </sheetData>
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.774734312442</v>
+        <v>130.0974328676231</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.9891697043867</v>
+        <v>178.0050471430688</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4379226308896</v>
+        <v>161.0164952754369</v>
       </c>
       <c r="AD2" t="n">
-        <v>103774.734312442</v>
+        <v>130097.4328676231</v>
       </c>
       <c r="AE2" t="n">
-        <v>141989.1697043867</v>
+        <v>178005.0471430688</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.967989691022844e-06</v>
+        <v>7.775981306270618e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.122685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>128437.9226308896</v>
+        <v>161016.4952754368</v>
       </c>
     </row>
   </sheetData>
@@ -4435,28 +4435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.9262890378269</v>
+        <v>234.6291149978907</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.3385040854937</v>
+        <v>321.0299062459736</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.0149696605812</v>
+        <v>290.3912625622564</v>
       </c>
       <c r="AD2" t="n">
-        <v>193926.2890378269</v>
+        <v>234629.1149978907</v>
       </c>
       <c r="AE2" t="n">
-        <v>265338.5040854937</v>
+        <v>321029.9062459735</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.687498738187835e-06</v>
+        <v>4.623791073665907e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.727623456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>240014.9696605811</v>
+        <v>290391.2625622564</v>
       </c>
     </row>
     <row r="3">
@@ -4541,28 +4541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.2277583905479</v>
+        <v>157.7548778605958</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.0786319224337</v>
+        <v>215.8471835427936</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.4648116126995</v>
+        <v>195.247031288956</v>
       </c>
       <c r="AD3" t="n">
-        <v>127227.7583905479</v>
+        <v>157754.8778605958</v>
       </c>
       <c r="AE3" t="n">
-        <v>174078.6319224337</v>
+        <v>215847.1835427936</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.544063246368347e-06</v>
+        <v>6.097494212821488e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.860339506172839</v>
       </c>
       <c r="AH3" t="n">
-        <v>157464.8116126995</v>
+        <v>195247.0312889559</v>
       </c>
     </row>
     <row r="4">
@@ -4647,28 +4647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.0595817670498</v>
+        <v>146.4161090365054</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.797839960992</v>
+        <v>200.332979806505</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.6423969893268</v>
+        <v>181.2134813829321</v>
       </c>
       <c r="AD4" t="n">
-        <v>116059.5817670498</v>
+        <v>146416.1090365055</v>
       </c>
       <c r="AE4" t="n">
-        <v>158797.839960992</v>
+        <v>200332.979806505</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.804171558582821e-06</v>
+        <v>6.54500567584623e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.459104938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>143642.3969893267</v>
+        <v>181213.4813829321</v>
       </c>
     </row>
     <row r="5">
@@ -4753,28 +4753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.4472425978686</v>
+        <v>146.8037698673242</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.3282546121067</v>
+        <v>200.8633944576198</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.1221896105809</v>
+        <v>181.6932740041863</v>
       </c>
       <c r="AD5" t="n">
-        <v>116447.2425978685</v>
+        <v>146803.7698673242</v>
       </c>
       <c r="AE5" t="n">
-        <v>159328.2546121067</v>
+        <v>200863.3944576198</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.799810396651674e-06</v>
+        <v>6.537502378701747e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.466820987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>144122.1896105809</v>
+        <v>181693.2740041863</v>
       </c>
     </row>
   </sheetData>
@@ -5050,28 +5050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.1047784929833</v>
+        <v>127.8719535957262</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.7042624789532</v>
+        <v>174.9600482220448</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.3710837441633</v>
+        <v>158.2621067777516</v>
       </c>
       <c r="AD2" t="n">
-        <v>102104.7784929833</v>
+        <v>127871.9535957262</v>
       </c>
       <c r="AE2" t="n">
-        <v>139704.2624789532</v>
+        <v>174960.0482220448</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.875388495168668e-06</v>
+        <v>7.76883776021989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.415895061728396</v>
       </c>
       <c r="AH2" t="n">
-        <v>126371.0837441633</v>
+        <v>158262.1067777516</v>
       </c>
     </row>
   </sheetData>
@@ -5347,28 +5347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.5533007053545</v>
+        <v>186.7249668280422</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.8889356171792</v>
+        <v>255.4853373381574</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.6209389548337</v>
+        <v>231.1021753186011</v>
       </c>
       <c r="AD2" t="n">
-        <v>147553.3007053545</v>
+        <v>186724.9668280422</v>
       </c>
       <c r="AE2" t="n">
-        <v>201888.9356171792</v>
+        <v>255485.3373381574</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.200498941687146e-06</v>
+        <v>5.668321444882335e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.747685185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>182620.9389548337</v>
+        <v>231102.1753186011</v>
       </c>
     </row>
     <row r="3">
@@ -5453,28 +5453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.3429249068736</v>
+        <v>138.7856801398181</v>
       </c>
       <c r="AB3" t="n">
-        <v>149.6078137269159</v>
+        <v>189.8926903592979</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.3294539607452</v>
+        <v>171.7695985075248</v>
       </c>
       <c r="AD3" t="n">
-        <v>109342.9249068736</v>
+        <v>138785.6801398181</v>
       </c>
       <c r="AE3" t="n">
-        <v>149607.8137269159</v>
+        <v>189892.6903592978</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.923712288661365e-06</v>
+        <v>6.949186022115436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.505401234567902</v>
       </c>
       <c r="AH3" t="n">
-        <v>135329.4539607452</v>
+        <v>171769.5985075248</v>
       </c>
     </row>
     <row r="4">
@@ -5559,28 +5559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.9609536439137</v>
+        <v>138.2331166762659</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.0851837935516</v>
+        <v>189.1366486510866</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.8567030947052</v>
+        <v>171.0857123588339</v>
       </c>
       <c r="AD4" t="n">
-        <v>108960.9536439137</v>
+        <v>138233.1166762659</v>
       </c>
       <c r="AE4" t="n">
-        <v>149085.1837935516</v>
+        <v>189136.6486510866</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.938378070155733e-06</v>
+        <v>6.97516021091072e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.482253086419754</v>
       </c>
       <c r="AH4" t="n">
-        <v>134856.7030947052</v>
+        <v>171085.7123588339</v>
       </c>
     </row>
   </sheetData>
@@ -5856,28 +5856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.285601273106</v>
+        <v>204.2922658631335</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.4652485998254</v>
+        <v>279.521690892493</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.7064599616055</v>
+        <v>252.8445330249527</v>
       </c>
       <c r="AD2" t="n">
-        <v>174285.601273106</v>
+        <v>204292.2658631335</v>
       </c>
       <c r="AE2" t="n">
-        <v>238465.2485998254</v>
+        <v>279521.6908924931</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.938516904751707e-06</v>
+        <v>5.124516892928861e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.199074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>215706.4599616055</v>
+        <v>252844.5330249527</v>
       </c>
     </row>
     <row r="3">
@@ -5962,28 +5962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.4301442411134</v>
+        <v>147.4367193225899</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.6731040029538</v>
+        <v>201.7294238260731</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.3386884630739</v>
+        <v>182.4766507451945</v>
       </c>
       <c r="AD3" t="n">
-        <v>117430.1442411134</v>
+        <v>147436.7193225899</v>
       </c>
       <c r="AE3" t="n">
-        <v>160673.1040029538</v>
+        <v>201729.4238260731</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.738330112075498e-06</v>
+        <v>6.519321287448654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.659722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>145338.6884630739</v>
+        <v>182476.6507451946</v>
       </c>
     </row>
     <row r="4">
@@ -6068,28 +6068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.8583061688027</v>
+        <v>142.694289049687</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.4177134571605</v>
+        <v>195.240621505433</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.6803036114734</v>
+        <v>176.607130610943</v>
       </c>
       <c r="AD4" t="n">
-        <v>112858.3061688027</v>
+        <v>142694.289049687</v>
       </c>
       <c r="AE4" t="n">
-        <v>154417.7134571605</v>
+        <v>195240.621505433</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.86129391999019e-06</v>
+        <v>6.733759431350005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.478395061728396</v>
       </c>
       <c r="AH4" t="n">
-        <v>139680.3036114734</v>
+        <v>176607.130610943</v>
       </c>
     </row>
   </sheetData>
@@ -6365,28 +6365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.9453304234898</v>
+        <v>265.2097803728694</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.4118808559753</v>
+        <v>362.8717217359103</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.1683609989474</v>
+        <v>328.2397539070944</v>
       </c>
       <c r="AD2" t="n">
-        <v>223945.3304234898</v>
+        <v>265209.7803728694</v>
       </c>
       <c r="AE2" t="n">
-        <v>306411.8808559753</v>
+        <v>362871.7217359103</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.483279329121299e-06</v>
+        <v>4.221410276744815e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.22530864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>277168.3609989474</v>
+        <v>328239.7539070944</v>
       </c>
     </row>
     <row r="3">
@@ -6471,28 +6471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.8325612457194</v>
+        <v>179.7595858712465</v>
       </c>
       <c r="AB3" t="n">
-        <v>203.6392763254975</v>
+        <v>245.9549958221541</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.2042296025693</v>
+        <v>222.4813962209638</v>
       </c>
       <c r="AD3" t="n">
-        <v>148832.5612457194</v>
+        <v>179759.5858712465</v>
       </c>
       <c r="AE3" t="n">
-        <v>203639.2763254975</v>
+        <v>245954.9958221541</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.335214229535912e-06</v>
+        <v>5.669643144289515e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.122685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>184204.2296025693</v>
+        <v>222481.3962209638</v>
       </c>
     </row>
     <row r="4">
@@ -6577,28 +6577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>122.6731195035952</v>
+        <v>153.6853954751428</v>
       </c>
       <c r="AB4" t="n">
-        <v>167.8467740608217</v>
+        <v>210.2791382101276</v>
       </c>
       <c r="AC4" t="n">
-        <v>151.8277135189304</v>
+        <v>190.2103923880371</v>
       </c>
       <c r="AD4" t="n">
-        <v>122673.1195035952</v>
+        <v>153685.3954751428</v>
       </c>
       <c r="AE4" t="n">
-        <v>167846.7740608217</v>
+        <v>210279.1382101276</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.681853745344952e-06</v>
+        <v>6.258907347153039e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.547839506172839</v>
       </c>
       <c r="AH4" t="n">
-        <v>151827.7135189304</v>
+        <v>190210.3923880371</v>
       </c>
     </row>
     <row r="5">
@@ -6683,28 +6683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.6418743453994</v>
+        <v>150.4835581163549</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.6992907062821</v>
+        <v>205.8982430807411</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.0760601547173</v>
+        <v>186.247603741173</v>
       </c>
       <c r="AD5" t="n">
-        <v>119641.8743453994</v>
+        <v>150483.5581163549</v>
       </c>
       <c r="AE5" t="n">
-        <v>163699.2907062821</v>
+        <v>205898.2430807411</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.744585545319557e-06</v>
+        <v>6.365547249473331e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.455246913580248</v>
       </c>
       <c r="AH5" t="n">
-        <v>148076.0601547173</v>
+        <v>186247.603741173</v>
       </c>
     </row>
   </sheetData>
@@ -6980,28 +6980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>131.8014973814896</v>
+        <v>160.5406851189306</v>
       </c>
       <c r="AB2" t="n">
-        <v>180.3366233889604</v>
+        <v>219.6588479347877</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.1255491568091</v>
+        <v>198.6949157810839</v>
       </c>
       <c r="AD2" t="n">
-        <v>131801.4973814896</v>
+        <v>160540.6851189306</v>
       </c>
       <c r="AE2" t="n">
-        <v>180336.6233889604</v>
+        <v>219658.8479347877</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.499777492845886e-06</v>
+        <v>6.310927006745689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.311728395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>163125.5491568091</v>
+        <v>198694.9157810839</v>
       </c>
     </row>
     <row r="3">
@@ -7086,28 +7086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.8029221907099</v>
+        <v>134.6273612741714</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.7642258367655</v>
+        <v>184.203095035242</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.9481313008108</v>
+        <v>166.6230101757979</v>
       </c>
       <c r="AD3" t="n">
-        <v>105802.9221907099</v>
+        <v>134627.3612741714</v>
       </c>
       <c r="AE3" t="n">
-        <v>144764.2258367655</v>
+        <v>184203.095035242</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.972091963439416e-06</v>
+        <v>7.162621765694972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.563271604938271</v>
       </c>
       <c r="AH3" t="n">
-        <v>130948.1313008108</v>
+        <v>166623.0101757979</v>
       </c>
     </row>
   </sheetData>
@@ -7383,28 +7383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.2765407498668</v>
+        <v>129.0317022482951</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.5710310595513</v>
+        <v>176.5468674929884</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.3460063409285</v>
+        <v>159.6974822445916</v>
       </c>
       <c r="AD2" t="n">
-        <v>101276.5407498667</v>
+        <v>129031.7022482951</v>
       </c>
       <c r="AE2" t="n">
-        <v>138571.0310595513</v>
+        <v>176546.8674929884</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.990189532359239e-06</v>
+        <v>7.444418232275516e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.767746913580247</v>
       </c>
       <c r="AH2" t="n">
-        <v>125346.0063409285</v>
+        <v>159697.4822445916</v>
       </c>
     </row>
     <row r="3">
@@ -7489,28 +7489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.320130465192</v>
+        <v>128.0752919636204</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.2624283142161</v>
+        <v>175.2382647476531</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.1622948049722</v>
+        <v>158.5137707086353</v>
       </c>
       <c r="AD3" t="n">
-        <v>100320.130465192</v>
+        <v>128075.2919636204</v>
       </c>
       <c r="AE3" t="n">
-        <v>137262.4283142161</v>
+        <v>175238.2647476532</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.033262221936324e-06</v>
+        <v>7.524778103153933e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.706018518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>124162.2948049722</v>
+        <v>158513.7707086353</v>
       </c>
     </row>
   </sheetData>
@@ -12719,28 +12719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.3989787170251</v>
+        <v>123.2994466565028</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.8973355033706</v>
+        <v>168.7037425030334</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.3092389220371</v>
+        <v>152.6028940957804</v>
       </c>
       <c r="AD2" t="n">
-        <v>96398.97871702511</v>
+        <v>123299.4466565028</v>
       </c>
       <c r="AE2" t="n">
-        <v>131897.3355033706</v>
+        <v>168703.7425030334</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.021768021677132e-06</v>
+        <v>7.734009047352927e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.918209876543211</v>
       </c>
       <c r="AH2" t="n">
-        <v>119309.2389220371</v>
+        <v>152602.8940957804</v>
       </c>
     </row>
   </sheetData>
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.8270853123656</v>
+        <v>134.3500114582041</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.9560663013881</v>
+        <v>183.8236127812254</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.7897329561757</v>
+        <v>166.2797451754978</v>
       </c>
       <c r="AD2" t="n">
-        <v>100827.0853123656</v>
+        <v>134350.0114582041</v>
       </c>
       <c r="AE2" t="n">
-        <v>137956.0663013881</v>
+        <v>183823.6127812254</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.681903223370547e-06</v>
+        <v>7.594291089847384e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.940586419753085</v>
       </c>
       <c r="AH2" t="n">
-        <v>124789.7329561757</v>
+        <v>166279.7451754978</v>
       </c>
     </row>
   </sheetData>
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.1088439991404</v>
+        <v>194.6644070253178</v>
       </c>
       <c r="AB2" t="n">
-        <v>212.226763278777</v>
+        <v>266.3484296794457</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.9721388536441</v>
+        <v>240.9285093732861</v>
       </c>
       <c r="AD2" t="n">
-        <v>155108.8439991404</v>
+        <v>194664.4070253178</v>
       </c>
       <c r="AE2" t="n">
-        <v>212226.763278777</v>
+        <v>266348.4296794457</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.07542516499859e-06</v>
+        <v>5.403400696220349e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.948302469135803</v>
       </c>
       <c r="AH2" t="n">
-        <v>191972.1388536441</v>
+        <v>240928.5093732862</v>
       </c>
     </row>
     <row r="3">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.1972100620616</v>
+        <v>142.9278879726233</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.8814167153017</v>
+        <v>195.5602418574514</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.0997516814693</v>
+        <v>176.8962468451549</v>
       </c>
       <c r="AD3" t="n">
-        <v>113197.2100620616</v>
+        <v>142927.8879726233</v>
       </c>
       <c r="AE3" t="n">
-        <v>154881.4167153017</v>
+        <v>195560.2418574514</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.835030807787238e-06</v>
+        <v>6.737997845846964e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.570987654320987</v>
       </c>
       <c r="AH3" t="n">
-        <v>140099.7516814694</v>
+        <v>176896.2468451549</v>
       </c>
     </row>
     <row r="4">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.0047559928751</v>
+        <v>140.5648417028447</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.8816043335952</v>
+        <v>192.3270177008981</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.3862371832089</v>
+        <v>173.9715970642434</v>
       </c>
       <c r="AD4" t="n">
-        <v>111004.7559928751</v>
+        <v>140564.8417028447</v>
       </c>
       <c r="AE4" t="n">
-        <v>151881.6043335952</v>
+        <v>192327.0177008981</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.892418064108177e-06</v>
+        <v>6.838824991403237e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.48996913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>137386.2371832089</v>
+        <v>173971.5970642434</v>
       </c>
     </row>
   </sheetData>
@@ -13822,28 +13822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.165646757667</v>
+        <v>254.2844989106008</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.9802009294673</v>
+        <v>347.923269649669</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.450160700503</v>
+        <v>314.7179611077843</v>
       </c>
       <c r="AD2" t="n">
-        <v>203165.646757667</v>
+        <v>254284.4989106008</v>
       </c>
       <c r="AE2" t="n">
-        <v>277980.2009294673</v>
+        <v>347923.2696496689</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.585817497435625e-06</v>
+        <v>4.421459750918622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.962962962962964</v>
       </c>
       <c r="AH2" t="n">
-        <v>251450.160700503</v>
+        <v>314717.9611077844</v>
       </c>
     </row>
     <row r="3">
@@ -13928,28 +13928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.5635605469622</v>
+        <v>173.4245059274807</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.3793118318135</v>
+        <v>237.2870599590958</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.0687248780991</v>
+        <v>214.6407159911487</v>
       </c>
       <c r="AD3" t="n">
-        <v>132563.5605469622</v>
+        <v>173424.5059274807</v>
       </c>
       <c r="AE3" t="n">
-        <v>181379.3118318135</v>
+        <v>237287.0599590958</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.442596735949739e-06</v>
+        <v>5.886456767246984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.983796296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>164068.7248780991</v>
+        <v>214640.7159911487</v>
       </c>
     </row>
     <row r="4">
@@ -14034,28 +14034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.3114593916299</v>
+        <v>149.9145875082839</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.2472023896558</v>
+        <v>205.1197523935671</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.6671185125197</v>
+        <v>185.5434111125641</v>
       </c>
       <c r="AD4" t="n">
-        <v>119311.4593916298</v>
+        <v>149914.5875082839</v>
       </c>
       <c r="AE4" t="n">
-        <v>163247.2023896558</v>
+        <v>205119.7523935671</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.745840325383337e-06</v>
+        <v>6.404969510986404e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.497685185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>147667.1185125198</v>
+        <v>185543.4111125641</v>
       </c>
     </row>
     <row r="5">
@@ -14140,28 +14140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.5592443298702</v>
+        <v>149.1623724465242</v>
       </c>
       <c r="AB5" t="n">
-        <v>162.2179885567704</v>
+        <v>204.0905385606816</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.7361314033338</v>
+        <v>184.6124240033782</v>
       </c>
       <c r="AD5" t="n">
-        <v>118559.2443298702</v>
+        <v>149162.3724465242</v>
       </c>
       <c r="AE5" t="n">
-        <v>162217.9885567704</v>
+        <v>204090.5385606816</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.761480242951379e-06</v>
+        <v>6.431712027077876e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.474537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>146736.1314033338</v>
+        <v>184612.4240033781</v>
       </c>
     </row>
   </sheetData>
@@ -14437,28 +14437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>117.3369177833404</v>
+        <v>149.8033803043084</v>
       </c>
       <c r="AB2" t="n">
-        <v>160.5455474505678</v>
+        <v>204.9675937909723</v>
       </c>
       <c r="AC2" t="n">
-        <v>145.2233057290209</v>
+        <v>185.405774313445</v>
       </c>
       <c r="AD2" t="n">
-        <v>117336.9177833404</v>
+        <v>149803.3803043084</v>
       </c>
       <c r="AE2" t="n">
-        <v>160545.5474505678</v>
+        <v>204967.5937909723</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.261648985803785e-06</v>
+        <v>6.99121606098887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.113425925925927</v>
       </c>
       <c r="AH2" t="n">
-        <v>145223.3057290209</v>
+        <v>185405.774313445</v>
       </c>
     </row>
   </sheetData>
@@ -14734,28 +14734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.4470785153517</v>
+        <v>134.5818104405895</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.6455889383113</v>
+        <v>184.1407703751742</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.7453783449463</v>
+        <v>166.5666336938137</v>
       </c>
       <c r="AD2" t="n">
-        <v>106447.0785153517</v>
+        <v>134581.8104405895</v>
       </c>
       <c r="AE2" t="n">
-        <v>145645.5889383113</v>
+        <v>184140.7703751742</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.86548131984427e-06</v>
+        <v>7.121888547517937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.868055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>131745.3783449463</v>
+        <v>166566.6336938138</v>
       </c>
     </row>
     <row r="3">
@@ -14840,28 +14840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.2349276883747</v>
+        <v>130.3696596136125</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.8823383498648</v>
+        <v>178.3775197867277</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.5321643038863</v>
+        <v>161.3534196527537</v>
       </c>
       <c r="AD3" t="n">
-        <v>102234.9276883747</v>
+        <v>130369.6596136125</v>
       </c>
       <c r="AE3" t="n">
-        <v>139882.3383498648</v>
+        <v>178377.5197867277</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.018976547835592e-06</v>
+        <v>7.40469314955236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.64429012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>126532.1643038863</v>
+        <v>161353.4196527537</v>
       </c>
     </row>
   </sheetData>
@@ -15137,28 +15137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.0789300604571</v>
+        <v>168.3055636377354</v>
       </c>
       <c r="AB2" t="n">
-        <v>190.2939278379893</v>
+        <v>230.2830972864745</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.1325424443905</v>
+        <v>208.3052016858768</v>
       </c>
       <c r="AD2" t="n">
-        <v>139078.9300604571</v>
+        <v>168305.5636377354</v>
       </c>
       <c r="AE2" t="n">
-        <v>190293.9278379894</v>
+        <v>230283.0972864745</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.354974165199208e-06</v>
+        <v>5.993416505882437e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.508487654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>172132.5424443905</v>
+        <v>208305.2016858768</v>
       </c>
     </row>
     <row r="3">
@@ -15243,28 +15243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.2700270334452</v>
+        <v>136.411319756152</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.7715834066927</v>
+        <v>186.6439857329802</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.7639094816088</v>
+        <v>168.8309456911563</v>
       </c>
       <c r="AD3" t="n">
-        <v>107270.0270334452</v>
+        <v>136411.319756152</v>
       </c>
       <c r="AE3" t="n">
-        <v>146771.5834066927</v>
+        <v>186643.9857329802</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.961841023052703e-06</v>
+        <v>7.077539859337881e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.513117283950617</v>
       </c>
       <c r="AH3" t="n">
-        <v>132763.9094816088</v>
+        <v>168830.9456911563</v>
       </c>
     </row>
     <row r="4">
@@ -15349,28 +15349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.6779133632</v>
+        <v>136.8192060859068</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.3296714777378</v>
+        <v>187.2020738040253</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.2687344104351</v>
+        <v>169.3357706199826</v>
       </c>
       <c r="AD4" t="n">
-        <v>107677.9133632</v>
+        <v>136819.2060859068</v>
       </c>
       <c r="AE4" t="n">
-        <v>147329.6714777378</v>
+        <v>187202.0738040253</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.95867141439389e-06</v>
+        <v>7.071877584781501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.516975308641975</v>
       </c>
       <c r="AH4" t="n">
-        <v>133268.7344104351</v>
+        <v>169335.7706199826</v>
       </c>
     </row>
   </sheetData>
